--- a/biology/Médecine/Teen_Spirit_(déodorant)/Teen_Spirit_(déodorant).xlsx
+++ b/biology/Médecine/Teen_Spirit_(déodorant)/Teen_Spirit_(déodorant).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teen_Spirit_(d%C3%A9odorant)</t>
+          <t>Teen_Spirit_(déodorant)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teen Spirit est un déodorant vendu à l'origine par Mennen, puis par Colgate-Palmolive (après le rachat de Mennen par Colgate-Palmolive en 1992)[1].
-Teen Spirit est commercialisé pour la première fois par Mennen au début de l'année 1991 et, grâce à d'importantes campagnes publicitaires, il lance « une niche de marché » auprès des adolescentes[2]. 
-Les ventes sont stimulées par la chanson Smells Like Teen Spirit du groupe grunge Nirvana, que Kurt Cobain a involontairement nommée d'après le déodorant[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teen Spirit est un déodorant vendu à l'origine par Mennen, puis par Colgate-Palmolive (après le rachat de Mennen par Colgate-Palmolive en 1992).
+Teen Spirit est commercialisé pour la première fois par Mennen au début de l'année 1991 et, grâce à d'importantes campagnes publicitaires, il lance « une niche de marché » auprès des adolescentes. 
+Les ventes sont stimulées par la chanson Smells Like Teen Spirit du groupe grunge Nirvana, que Kurt Cobain a involontairement nommée d'après le déodorant. 
 </t>
         </is>
       </c>
